--- a/PROYECTOS 22809.xlsx
+++ b/PROYECTOS 22809.xlsx
@@ -734,7 +734,7 @@
     <t>https://elvideoclub.netlify.app/</t>
   </si>
   <si>
-    <t>https://comision22809.netlify.app/</t>
+    <t>https://proyectosreactcortez.netlify.app/</t>
   </si>
   <si>
     <t>https://linktree-comision-22809.netlify.app/</t>
@@ -747,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -780,12 +780,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -855,10 +849,10 @@
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>

--- a/PROYECTOS 22809.xlsx
+++ b/PROYECTOS 22809.xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjnKfiDZ1hOd42bhnF/9JXG2hhvFA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj2Rft0LTAwVFSv9bGipOM00m/Mig=="/>
     </ext>
   </extLst>
 </workbook>
@@ -664,16 +664,7 @@
         <sz val="11.0"/>
         <u/>
       </rPr>
-      <t>https://nickochamorro.github.io/React-FixtureMundial2022/</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF0563C1"/>
-        <sz val="11.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve">https://nickochamorro.github.io/React-FixtureMundial2022/  </t>
     </r>
     <r>
       <rPr>
@@ -737,7 +728,32 @@
     <t>https://proyectosreactcortez.netlify.app/</t>
   </si>
   <si>
-    <t>https://linktree-comision-22809.netlify.app/</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://linktree-comision-22809.netlify.app/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="11.0"/>
+        <u/>
+      </rPr>
+      <t>https://curso-react-mobile-first.netlify.app/</t>
+    </r>
   </si>
   <si>
     <t>https://adriandesimone.github.io/CAC2022-accesos-directos/</t>
@@ -747,7 +763,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -780,6 +796,12 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -846,15 +868,11 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -30216,7 +30234,7 @@
       <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>214</v>
       </c>
       <c r="E16" s="6"/>
@@ -31204,7 +31222,7 @@
       <c r="C45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E45" s="6"/>

--- a/PROYECTOS 22809.xlsx
+++ b/PROYECTOS 22809.xlsx
@@ -868,7 +868,9 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>

--- a/PROYECTOS 22809.xlsx
+++ b/PROYECTOS 22809.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -728,6 +728,9 @@
     <t>https://proyectosreactcortez.netlify.app/</t>
   </si>
   <si>
+    <t>https://gilded-yeot-147219.netlify.app/</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -763,7 +766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -796,6 +799,12 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -845,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -874,7 +883,10 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -30850,7 +30862,9 @@
       <c r="C34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -31224,8 +31238,8 @@
       <c r="C45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>215</v>
+      <c r="D45" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -31328,8 +31342,8 @@
       <c r="C48" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>216</v>
+      <c r="D48" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -58153,12 +58167,13 @@
     <hyperlink r:id="rId1" ref="D12"/>
     <hyperlink r:id="rId2" ref="D14"/>
     <hyperlink r:id="rId3" ref="D16"/>
-    <hyperlink r:id="rId4" ref="D45"/>
-    <hyperlink r:id="rId5" ref="D48"/>
+    <hyperlink r:id="rId4" ref="D34"/>
+    <hyperlink r:id="rId5" ref="D45"/>
+    <hyperlink r:id="rId6" ref="D48"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>